--- a/moreanalysis.xlsx
+++ b/moreanalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9968" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9968"/>
   </bookViews>
   <sheets>
     <sheet name="tobiData" sheetId="14" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>Chikungunya</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>aug to oct corrl</t>
+  </si>
+  <si>
+    <t>now scaled</t>
   </si>
 </sst>
 </file>
@@ -1189,11 +1195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="369793536"/>
-        <c:axId val="369795104"/>
+        <c:axId val="440839504"/>
+        <c:axId val="440840288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="369793536"/>
+        <c:axId val="440839504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,14 +1242,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369795104"/>
+        <c:crossAx val="440840288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="369795104"/>
+        <c:axId val="440840288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369793536"/>
+        <c:crossAx val="440839504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2894,11 +2900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="370485264"/>
-        <c:axId val="370482128"/>
+        <c:axId val="440841072"/>
+        <c:axId val="481263488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370485264"/>
+        <c:axId val="440841072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,14 +2947,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370482128"/>
+        <c:crossAx val="481263488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370482128"/>
+        <c:axId val="481263488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +3005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370485264"/>
+        <c:crossAx val="440841072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3013,7 +3019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4631,11 +4636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="369791184"/>
-        <c:axId val="369797064"/>
+        <c:axId val="481274856"/>
+        <c:axId val="481272112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="369791184"/>
+        <c:axId val="481274856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4678,14 +4683,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369797064"/>
+        <c:crossAx val="481272112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="369797064"/>
+        <c:axId val="481272112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4736,7 +4741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369791184"/>
+        <c:crossAx val="481274856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6857,10 +6862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6868,7 +6873,7 @@
     <col min="1" max="2" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6929,8 +6934,65 @@
       <c r="T1" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>41791</v>
       </c>
@@ -6991,8 +7053,80 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V2">
+        <f>C2/MAX(C$2:C$28)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:AM2" si="0">D2/MAX(D$2:D$28)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>41798</v>
       </c>
@@ -7053,8 +7187,80 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V3">
+        <f t="shared" ref="V3:V28" si="1">C3/MAX(C$2:C$28)</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W28" si="2">D3/MAX(D$2:D$28)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X28" si="3">E3/MAX(E$2:E$28)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y28" si="4">F3/MAX(F$2:F$28)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z28" si="5">G3/MAX(G$2:G$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA28" si="6">H3/MAX(H$2:H$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB28" si="7">I3/MAX(I$2:I$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC28" si="8">J3/MAX(J$2:J$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD28" si="9">K3/MAX(K$2:K$28)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE28" si="10">L3/MAX(L$2:L$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF28" si="11">M3/MAX(M$2:M$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG28" si="12">N3/MAX(N$2:N$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH28" si="13">O3/MAX(O$2:O$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI28" si="14">P3/MAX(P$2:P$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ28" si="15">Q3/MAX(Q$2:Q$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK28" si="16">R3/MAX(R$2:R$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL28" si="17">S3/MAX(S$2:S$28)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM28" si="18">T3/MAX(T$2:T$28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>41805</v>
       </c>
@@ -7115,8 +7321,80 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="11"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>41812</v>
       </c>
@@ -7177,8 +7455,80 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="8"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>41819</v>
       </c>
@@ -7239,8 +7589,80 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="11"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>41826</v>
       </c>
@@ -7301,8 +7723,80 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="8"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>41833</v>
       </c>
@@ -7363,8 +7857,80 @@
       <c r="T8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="8"/>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="18"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>41840</v>
       </c>
@@ -7425,8 +7991,80 @@
       <c r="T9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="5"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="6"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="8"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="11"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="18"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>41847</v>
       </c>
@@ -7487,8 +8125,80 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="8"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="11"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>41854</v>
       </c>
@@ -7549,8 +8259,80 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="8"/>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="11"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>41861</v>
       </c>
@@ -7611,8 +8393,80 @@
       <c r="T12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="8"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>41868</v>
       </c>
@@ -7673,8 +8527,80 @@
       <c r="T13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="5"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="8"/>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>41875</v>
       </c>
@@ -7735,8 +8661,80 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="5"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="8"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>41882</v>
       </c>
@@ -7797,8 +8795,80 @@
       <c r="T15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="8"/>
+        <v>0.30232558139534882</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="11"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="14"/>
+        <v>0.1875</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>41889</v>
       </c>
@@ -7859,8 +8929,80 @@
       <c r="T16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="8"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="11"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="14"/>
+        <v>0.625</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="17"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>41896</v>
       </c>
@@ -7921,8 +9063,80 @@
       <c r="T17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="8"/>
+        <v>0.30232558139534882</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="14"/>
+        <v>0.3125</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>41903</v>
       </c>
@@ -7983,8 +9197,80 @@
       <c r="T18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="8"/>
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="11"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="14"/>
+        <v>0.8125</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>41910</v>
       </c>
@@ -8045,8 +9331,80 @@
       <c r="T19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="11"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="17"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>41917</v>
       </c>
@@ -8107,8 +9465,80 @@
       <c r="T20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="11"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>41924</v>
       </c>
@@ -8169,8 +9599,80 @@
       <c r="T21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="8"/>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>41931</v>
       </c>
@@ -8231,8 +9733,80 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="8"/>
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="17"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>41938</v>
       </c>
@@ -8293,8 +9867,80 @@
       <c r="T23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="8"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="11"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>41945</v>
       </c>
@@ -8355,8 +10001,80 @@
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="8"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>41952</v>
       </c>
@@ -8417,8 +10135,80 @@
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>41973</v>
       </c>
@@ -8479,8 +10269,80 @@
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="8"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>41980</v>
       </c>
@@ -8541,8 +10403,80 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="11"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>41994</v>
       </c>
@@ -8603,8 +10537,80 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="8"/>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="11"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="14"/>
+        <v>0.1875</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>42008</v>
       </c>
@@ -8666,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>42015</v>
       </c>
@@ -8767,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f>SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J28" si="0">SUM(C2:I2)</f>
         <v>5</v>
       </c>
     </row>
@@ -8807,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUM(C3:I3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -8847,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f>SUM(C4:I4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -8887,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUM(C5:I5)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -8927,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <f>SUM(C6:I6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -8967,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <f>SUM(C7:I7)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -9007,7 +11013,7 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <f>SUM(C8:I8)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -9047,7 +11053,7 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <f>SUM(C9:I9)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -9087,7 +11093,7 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <f>SUM(C10:I10)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -9127,7 +11133,7 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <f>SUM(C11:I11)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -9167,7 +11173,7 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <f>SUM(C12:I12)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -9207,7 +11213,7 @@
         <v>12</v>
       </c>
       <c r="J13">
-        <f>SUM(C13:I13)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -9247,7 +11253,7 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f>SUM(C14:I14)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -9287,7 +11293,7 @@
         <v>18</v>
       </c>
       <c r="J15">
-        <f>SUM(C15:I15)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
@@ -9327,7 +11333,7 @@
         <v>32</v>
       </c>
       <c r="J16">
-        <f>SUM(C16:I16)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
@@ -9367,7 +11373,7 @@
         <v>25</v>
       </c>
       <c r="J17">
-        <f>SUM(C17:I17)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
@@ -9407,7 +11413,7 @@
         <v>35</v>
       </c>
       <c r="J18">
-        <f>SUM(C18:I18)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
@@ -9447,7 +11453,7 @@
         <v>69</v>
       </c>
       <c r="J19">
-        <f>SUM(C19:I19)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
@@ -9487,7 +11493,7 @@
         <v>26</v>
       </c>
       <c r="J20">
-        <f>SUM(C20:I20)</f>
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
     </row>
@@ -9527,7 +11533,7 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <f>SUM(C21:I21)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -9567,7 +11573,7 @@
         <v>11</v>
       </c>
       <c r="J22">
-        <f>SUM(C22:I22)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -9607,7 +11613,7 @@
         <v>12</v>
       </c>
       <c r="J23">
-        <f>SUM(C23:I23)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -9647,7 +11653,7 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <f>SUM(C24:I24)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -9687,7 +11693,7 @@
         <v>20</v>
       </c>
       <c r="J25">
-        <f>SUM(C25:I25)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -9727,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <f>SUM(C26:I26)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -9767,7 +11773,7 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <f>SUM(C27:I27)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -9807,7 +11813,7 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <f>SUM(C28:I28)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -10709,8 +12715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12435,7 +14441,7 @@
         <v>114</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:U43" si="9">C18/MAX($J$2:$J$28)</f>
+        <f t="shared" ref="N18:U28" si="9">C18/MAX($J$2:$J$28)</f>
         <v>0.40476190476190477</v>
       </c>
       <c r="O18">
@@ -13691,8 +15697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="J30" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13861,7 +15867,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U28" si="7">J2/MAX($J$2:$J$28)</f>
+        <f t="shared" ref="U2" si="7">J2/MAX($J$2:$J$28)</f>
         <v>0</v>
       </c>
       <c r="V2">
@@ -16658,7 +18664,68 @@
         <v>0.39478554127827375</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33">
+        <f>CORREL(N10:N20,$Z$10:$Z$20)</f>
+        <v>0.37606372397982762</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:AA33" si="27">CORREL(O10:O20,$Z$10:$Z$20)</f>
+        <v>0.49450913460642754</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="27"/>
+        <v>0.39451942783861382</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="27"/>
+        <v>0.36271956237226632</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="27"/>
+        <v>0.12362484083791071</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="27"/>
+        <v>0.61054523737291566</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="27"/>
+        <v>0.80439719473805904</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="27"/>
+        <v>0.44811442345907088</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="27"/>
+        <v>0.72960806381290866</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="27"/>
+        <v>0.74200207242579808</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="27"/>
+        <v>0.76169298359112392</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="27"/>
+        <v>0.77617261484683253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>

--- a/moreanalysis.xlsx
+++ b/moreanalysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Documents\GitHub\Modelling-Disease-with-Twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Documents\GitHub\Modeling-Disease-with-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9968"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9968" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tobiData" sheetId="14" r:id="rId1"/>
@@ -1195,11 +1195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="440839504"/>
-        <c:axId val="440840288"/>
+        <c:axId val="713120944"/>
+        <c:axId val="713119376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440839504"/>
+        <c:axId val="713120944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1242,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440840288"/>
+        <c:crossAx val="713119376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440840288"/>
+        <c:axId val="713119376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440839504"/>
+        <c:crossAx val="713120944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,11 +2900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="440841072"/>
-        <c:axId val="481263488"/>
+        <c:axId val="713119768"/>
+        <c:axId val="713118592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440841072"/>
+        <c:axId val="713119768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,14 +2947,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481263488"/>
+        <c:crossAx val="713118592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481263488"/>
+        <c:axId val="713118592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440841072"/>
+        <c:crossAx val="713119768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4636,11 +4636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="481274856"/>
-        <c:axId val="481272112"/>
+        <c:axId val="713120552"/>
+        <c:axId val="713120160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481274856"/>
+        <c:axId val="713120552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,14 +4683,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481272112"/>
+        <c:crossAx val="713120160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481272112"/>
+        <c:axId val="713120160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,7 +4741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481274856"/>
+        <c:crossAx val="713120552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6864,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AM28"/>
+    <sheetView topLeftCell="AF14" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15697,8 +15697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:U28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18526,7 +18526,7 @@
         <v>0.85870531949436413</v>
       </c>
       <c r="X30">
-        <f t="shared" si="24"/>
+        <f>CORREL(X2:X19,$Z$2:$Z$19)</f>
         <v>0.86475292951832972</v>
       </c>
       <c r="Y30">
